--- a/app/data/static/params/milk_project.xlsx
+++ b/app/data/static/params/milk_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Вес нетто</t>
   </si>
   <si>
+    <t xml:space="preserve">Выход</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коробки</t>
   </si>
   <si>
@@ -76,7 +79,7 @@
     <t xml:space="preserve">Умалат</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000079144</t>
+    <t xml:space="preserve">Н0000088717</t>
   </si>
   <si>
     <t xml:space="preserve">Качорикотта "Unagrande", 45%, 0,37 кг, в/у</t>
@@ -88,7 +91,7 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000084378</t>
+    <t xml:space="preserve">Н0000082882</t>
   </si>
   <si>
     <t xml:space="preserve">Рикотта "Pretto" (зернистая), 30%, 0,37 кг, в/у</t>
@@ -100,7 +103,7 @@
     <t xml:space="preserve">Pretto</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000096291</t>
+    <t xml:space="preserve">Н0000088470</t>
   </si>
 </sst>
 </file>
@@ -146,6 +149,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -153,13 +157,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -341,10 +345,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,10 +357,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="11" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1013" min="12" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1014" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,47 +406,53 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="L2" s="0" t="n">
         <v>20</v>
       </c>
       <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>18</v>
+      <c r="O2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,41 +460,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="L3" s="0" t="n">
         <v>20</v>
       </c>
       <c r="M3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>22</v>
+      <c r="O3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,41 +505,44 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="L4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="M4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>26</v>
+      <c r="O4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/milk_project.xlsx
+++ b/app/data/static/params/milk_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Kод</t>
   </si>
   <si>
+    <t xml:space="preserve">Название варки</t>
+  </si>
+  <si>
     <t xml:space="preserve">Четук "Умалат", 45%, 0,37 кг, в/у</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t xml:space="preserve">Н0000088717</t>
   </si>
   <si>
+    <t xml:space="preserve">производство четук</t>
+  </si>
+  <si>
     <t xml:space="preserve">Качорикотта "Unagrande", 45%, 0,37 кг, в/у</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t xml:space="preserve">Н0000082882</t>
   </si>
   <si>
+    <t xml:space="preserve">производство свели-квели</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта "Pretto" (зернистая), 30%, 0,37 кг, в/у</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000088470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">производство рикоты зернистой</t>
   </si>
 </sst>
 </file>
@@ -113,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,6 +176,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,12 +287,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -345,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,25 +444,28 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.37</v>
@@ -452,27 +490,30 @@
         <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.37</v>
@@ -497,27 +538,30 @@
         <v>20</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.37</v>
@@ -542,7 +586,10 @@
         <v>20</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/milk_project.xlsx
+++ b/app/data/static/params/milk_project.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -473,7 +473,9 @@
       <c r="H2" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
       </c>
@@ -521,7 +523,9 @@
       <c r="H3" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
       </c>
@@ -569,7 +573,9 @@
       <c r="H4" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>

--- a/app/data/static/params/milk_project.xlsx
+++ b/app/data/static/params/milk_project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t xml:space="preserve">производство рикоты зернистой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домашний "Светлый дар", 45%, 0,37 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Светлый дар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098295</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -191,6 +200,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -254,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,6 +321,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,10 +413,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -598,6 +631,56 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
